--- a/doc/ue_Skeleton.xlsx
+++ b/doc/ue_Skeleton.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F39CE9-87BA-47C1-955E-7A02169FBCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C190A73E-A1E9-4CB7-86A3-62AEABB1254E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基础概念" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="动画通知" sheetId="6" r:id="rId5"/>
     <sheet name="动画状态机" sheetId="5" r:id="rId6"/>
     <sheet name="Montage" sheetId="3" r:id="rId7"/>
+    <sheet name="USkeletalMeshComponent" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="118">
   <si>
     <t>Skeleton</t>
   </si>
@@ -451,6 +452,75 @@
   </si>
   <si>
     <t>主要需要设置大量的变量，程序控制各个变量的数值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void USkeletalMeshComponent::TickComponent(float DeltaTime, enum ELevelTick TickType, FActorComponentTickFunction *ThisTickFunction)</t>
+  </si>
+  <si>
+    <t>Super::TickComponent(DeltaTime, TickType, ThisTickFunction);</t>
+  </si>
+  <si>
+    <t>void USkinnedMeshComponent::TickComponent(float DeltaTime, enum ELevelTick TickType, FActorComponentTickFunction *ThisTickFunction)</t>
+  </si>
+  <si>
+    <t>// Tick ActorComponent first.</t>
+  </si>
+  <si>
+    <t>是否最近渲染了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Tick Pose first</t>
+  </si>
+  <si>
+    <t>if (ShouldTickPose())</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>TickPose(DeltaTime, false);</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>是否更新POSE，如果是，才会调用TickAnimation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>// If we have been recently rendered, and bForceRefPose has been on for at least a frame, or the LOD changed, update bone matrices.</t>
+  </si>
+  <si>
+    <t>if( ShouldUpdateTransform(bLODHasChanged) )</t>
+  </si>
+  <si>
+    <t>// Do not update bones if we are taking bone transforms from another SkelMeshComp</t>
+  </si>
+  <si>
+    <t>if( MasterPoseComponent.IsValid() )</t>
+  </si>
+  <si>
+    <t>UpdateSlaveComponent();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">else </t>
+  </si>
+  <si>
+    <t>RefreshBoneTransforms(ThisTickFunction);</t>
+  </si>
+  <si>
+    <t>else if(VisibilityBasedAnimTickOption == EVisibilityBasedAnimTickOption::AlwaysTickPose)</t>
+  </si>
+  <si>
+    <t>// We are not refreshing bone transforms, but we do want to tick pose. We may need to kick off a parallel task</t>
+  </si>
+  <si>
+    <t>DispatchParallelTickPose(ThisTickFunction);</t>
+  </si>
+  <si>
+    <t>刷新骨头</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1812,7 +1882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A5:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1937,4 +2007,176 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F4466B-01B3-4F50-8F99-7C7DA18FE84A}">
+  <dimension ref="B3:E40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="O38" sqref="O38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="C5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="C10" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="C11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="C12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="C14" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="C15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="C16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5">
+      <c r="C17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5">
+      <c r="D18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5">
+      <c r="C19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5">
+      <c r="C22" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5">
+      <c r="C23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5">
+      <c r="C24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5">
+      <c r="C25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5">
+      <c r="D26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5">
+      <c r="D27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5">
+      <c r="D28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5">
+      <c r="E29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5">
+      <c r="D30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5">
+      <c r="D31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5">
+      <c r="D32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="E33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5">
+      <c r="D34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5">
+      <c r="C35" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5">
+      <c r="C36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5">
+      <c r="C37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5">
+      <c r="D38" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5">
+      <c r="D39" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5">
+      <c r="C40" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>